--- a/Excel - Gráficos APS 4.xlsx
+++ b/Excel - Gráficos APS 4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henrique Martinelli\Documents\Insper - 5º período\Transferência de Calor e Mecânica dos Sólidos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henrique Martinelli\APS4-TransCal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55A34FB-D006-487E-B241-310B544A746D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A078C7-04F4-43F9-AF49-E27F93D22580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C1526768-A273-47DD-A8E4-F03022A47166}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t>Node</t>
   </si>
@@ -64,24 +64,34 @@
     <t>SAÍDA</t>
   </si>
   <si>
-    <t>%</t>
+    <t>LSUDP</t>
   </si>
   <si>
-    <t>LSUDP</t>
+    <t>Reaction Force in X</t>
+  </si>
+  <si>
+    <t>Reaction Force in Y</t>
+  </si>
+  <si>
+    <t>Reaction Forces in X</t>
+  </si>
+  <si>
+    <t>Reaction Forces t in Y</t>
+  </si>
+  <si>
+    <t>% of Accuracy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
-    <numFmt numFmtId="167" formatCode="0.00000"/>
-    <numFmt numFmtId="168" formatCode="0.000000"/>
-    <numFmt numFmtId="169" formatCode="0.0000000"/>
-    <numFmt numFmtId="171" formatCode="0.000000000"/>
-    <numFmt numFmtId="175" formatCode="#,##0.00000"/>
-    <numFmt numFmtId="184" formatCode="0.00000%"/>
-    <numFmt numFmtId="196" formatCode="0.000000%"/>
+  <numFmts count="5">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="166" formatCode="0.0000000"/>
+    <numFmt numFmtId="167" formatCode="0.000000000"/>
+    <numFmt numFmtId="168" formatCode="#,##0.00000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -163,7 +173,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -325,11 +335,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -349,50 +374,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -407,61 +420,97 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="196" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="196" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="196" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="196" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="196" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="196" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -495,6 +544,35 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -505,7 +583,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Tensile Force (LISA)</c:v>
+            <c:strRef>
+              <c:f>Planilha1!$J$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Displacement in X</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
@@ -527,75 +613,30 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$G$3:$G$24</c:f>
+              <c:f>Planilha1!$J$28:$J$34</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00000</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:formatCode>0.000000000</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-6484.5971347493796</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-6484.5971347493796</c:v>
+                  <c:v>100.00049119174226</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4555.98850415581</c:v>
+                  <c:v>100.00041118421382</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4555.98850415581</c:v>
+                  <c:v>99.998648964455029</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3829.2664114683898</c:v>
+                  <c:v>100.00026483050912</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-3829.2664114683898</c:v>
+                  <c:v>99.99998715399046</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-3577.7087639996598</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-3577.7087639996598</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-766.17964603609698</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-766.17964603609698</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>766.17964603608698</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>766.17964603608698</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1937.9838105618901</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1937.9838105618901</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-1937.9838105619001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-1937.9838105619001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1899.99999999998</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1899.99999999998</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1050</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1050</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3199.99999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3199.99999999999</c:v>
+                  <c:v>99.999872967480442</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -603,113 +644,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-2CB3-4DB1-958C-D4A58C450E18}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Tensile Force (SAÍDA)</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent2">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Planilha1!$G$28:$G$49</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.00000</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>-6484.5968235399996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-6484.5968235399996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-4555.9882119200001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-4555.9882119200001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-3829.2660957899998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-3829.2660957899998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-3577.7084180799998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-3577.7084180799998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-766.17952595999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-766.17952595999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>766.17948204000004</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>766.17948204000004</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1937.98372997</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1937.98372997</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-1937.9838121499999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-1937.9838121499999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1899.99960521</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1899.99960521</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1049.9997256500001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1049.9997256500001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3199.9996906000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3199.9996906000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-2CB3-4DB1-958C-D4A58C450E18}"/>
+              <c16:uniqueId val="{00000000-7D03-455A-AD7F-E96D177DCC15}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -757,6 +692,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1050"/>
+                  <a:t>Node</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.51024650697326124"/>
+              <c:y val="0.87400099211817217"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -797,8 +793,6 @@
         <c:axId val="1654518480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="4000"/>
-          <c:min val="-7000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -827,7 +821,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>%</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t> de precisão</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000000000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -860,7 +912,6 @@
         <c:crossAx val="1654519312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="1000"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -886,6 +937,1665 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$K$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Displacement in Y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$K$28:$K$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.999978040080109</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.99991665644896</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.999990078841009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100.00002229950992</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100.00009891559458</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-18F8-4729-9ACD-FD5234F13271}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1654519312"/>
+        <c:axId val="1654518480"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1654519312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1050"/>
+                  <a:t>Node</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.51024650697326124"/>
+              <c:y val="0.87400099211817217"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1654518480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1654518480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>%</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t> de precisão</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1654519312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$L$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tensile Force</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:srgbClr val="00B050">
+                  <a:alpha val="14000"/>
+                </a:srgbClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Planilha1!$E$3:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$L$28:$L$49</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000000</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>99.999995200790835</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.999995200790835</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.999993585677188</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.999993585677188</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.999991756165386</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99.999991756165386</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99.999990331251567</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>99.999990331251567</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99.999984327944802</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>99.999984327944802</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>99.999978595609036</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>99.999978595609036</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>99.999995841457007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>99.999995841457007</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100.00000008194598</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100.00000008194598</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>99.999979221580006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>99.999979221580006</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>99.99997387142858</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>99.99997387142858</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>99.999990331250316</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>99.999990331250316</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F99B-444F-A3CD-47B0187E6602}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1654519312"/>
+        <c:axId val="1654518480"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1654519312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1050"/>
+                  <a:t>Element</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.46816724332303161"/>
+              <c:y val="0.9301943553168609"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1654518480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1654518480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>%</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t> de precisão</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.2273102908242196E-2"/>
+              <c:y val="0.43784323305451622"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1654519312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Longitudinal Stress User Defined Point</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:srgbClr val="FF0000">
+                  <a:alpha val="14000"/>
+                </a:srgbClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Planilha1!$E$3:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$M$28:$M$49</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000000</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>99.999995223305874</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.999995223305874</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.99999353256031</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.99999353256031</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.999991722477532</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99.999991722477532</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99.999990315040264</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>99.999990315040264</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99.999984104759434</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>99.999984104759434</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>99.999978623017682</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>99.999978623017682</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>99.99999581720499</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>99.99999581720499</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100.00000015160573</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100.00000015160573</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>99.999979302632383</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>99.999979302632383</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>99.999974000000506</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>99.999974000000506</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>99.99999039843776</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>99.99999039843776</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5E03-4E1E-90F4-9575394247DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1654519312"/>
+        <c:axId val="1654518480"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1654519312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1050"/>
+                  <a:t>Element</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.46816724332303161"/>
+              <c:y val="0.9301943553168609"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1654518480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1654518480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>%</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t> de precisão</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.2273102908242196E-2"/>
+              <c:y val="0.43784323305451622"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1654519312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="75000"/>
@@ -987,6 +2697,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
   <cs:axisTitle>
@@ -1536,20 +3366,1667 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>718969</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>328556</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>770803</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>160975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>824753</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>172122</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>167735</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>156940</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1569,6 +5046,120 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>11084</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>137731</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>375050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>164177</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CFABFDA-5D25-4E57-9FC8-51610BAB44BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>80683</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>105783</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{084ECA21-5C1B-4BAB-9028-4942968C9DBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>147021</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>75303</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03510931-64E5-4149-9A68-A5767540CF15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1876,58 +5467,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83226454-D38C-40A7-A4E0-2F40E7B3106D}">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.21875" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" customWidth="1"/>
     <col min="3" max="3" width="21.44140625" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="12.88671875" customWidth="1"/>
     <col min="7" max="7" width="24.21875" customWidth="1"/>
     <col min="8" max="8" width="45.44140625" customWidth="1"/>
     <col min="9" max="9" width="10.77734375" customWidth="1"/>
-    <col min="10" max="10" width="19.109375" customWidth="1"/>
+    <col min="10" max="10" width="26.21875" customWidth="1"/>
     <col min="11" max="11" width="24.77734375" customWidth="1"/>
     <col min="12" max="12" width="17.88671875" customWidth="1"/>
     <col min="13" max="13" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="21"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="17" t="s">
+      <c r="D2" s="18"/>
+      <c r="E2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="16" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1935,13 +5526,13 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B3" s="27">
         <v>1.0000000000000001E-17</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="27">
         <v>1.0000000000000001E-17</v>
       </c>
-      <c r="D3" s="22"/>
+      <c r="D3" s="18"/>
       <c r="E3" s="3">
         <v>1</v>
       </c>
@@ -1965,7 +5556,7 @@
       <c r="C4" s="6">
         <v>-4.1638409143761297E-3</v>
       </c>
-      <c r="D4" s="22"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="3">
         <v>1</v>
       </c>
@@ -1989,7 +5580,7 @@
       <c r="C5" s="6">
         <v>-4.5031837531132497E-3</v>
       </c>
-      <c r="D5" s="22"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="3">
         <v>2</v>
       </c>
@@ -2013,7 +5604,7 @@
       <c r="C6" s="7">
         <v>-4.2870104253211203E-3</v>
       </c>
-      <c r="D6" s="22"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="3">
         <v>2</v>
       </c>
@@ -2037,7 +5628,7 @@
       <c r="C7" s="6">
         <v>-4.4785190013122101E-3</v>
       </c>
-      <c r="D7" s="22"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="3">
         <v>3</v>
       </c>
@@ -2061,7 +5652,7 @@
       <c r="C8" s="6">
         <v>-4.1020859423973001E-3</v>
       </c>
-      <c r="D8" s="22"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="3">
         <v>3</v>
       </c>
@@ -2082,10 +5673,10 @@
       <c r="B9" s="8">
         <v>1.1245714285714201E-3</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="28">
         <v>1.0000000000000001E-17</v>
       </c>
-      <c r="D9" s="22"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="3">
         <v>4</v>
       </c>
@@ -2100,10 +5691,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="3">
         <v>4</v>
       </c>
@@ -2117,11 +5708,17 @@
         <v>-681468335.99993396</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
+    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="18"/>
       <c r="E11" s="3">
         <v>5</v>
       </c>
@@ -2136,10 +5733,16 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
+      <c r="A12" s="2">
+        <v>1</v>
+      </c>
+      <c r="B12" s="42">
+        <v>3900</v>
+      </c>
+      <c r="C12" s="27">
+        <v>2899.9999999000001</v>
+      </c>
+      <c r="D12" s="18"/>
       <c r="E12" s="3">
         <v>5</v>
       </c>
@@ -2154,10 +5757,16 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
+      <c r="A13" s="3">
+        <v>2</v>
+      </c>
+      <c r="B13" s="49">
+        <v>1E-14</v>
+      </c>
+      <c r="C13" s="46">
+        <v>1E-14</v>
+      </c>
+      <c r="D13" s="18"/>
       <c r="E13" s="3">
         <v>6</v>
       </c>
@@ -2172,10 +5781,16 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+      <c r="A14" s="3">
+        <v>3</v>
+      </c>
+      <c r="B14" s="49">
+        <v>1E-14</v>
+      </c>
+      <c r="C14" s="46">
+        <v>1E-14</v>
+      </c>
+      <c r="D14" s="18"/>
       <c r="E14" s="3">
         <v>6</v>
       </c>
@@ -2190,10 +5805,16 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
+      <c r="A15" s="3">
+        <v>4</v>
+      </c>
+      <c r="B15" s="49">
+        <v>1E-14</v>
+      </c>
+      <c r="C15" s="46">
+        <v>1E-14</v>
+      </c>
+      <c r="D15" s="18"/>
       <c r="E15" s="3">
         <v>7</v>
       </c>
@@ -2208,10 +5829,16 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
+      <c r="A16" s="3">
+        <v>5</v>
+      </c>
+      <c r="B16" s="49">
+        <v>1E-14</v>
+      </c>
+      <c r="C16" s="46">
+        <v>1E-14</v>
+      </c>
+      <c r="D16" s="18"/>
       <c r="E16" s="3">
         <v>7</v>
       </c>
@@ -2226,10 +5853,16 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
+      <c r="A17" s="3">
+        <v>6</v>
+      </c>
+      <c r="B17" s="49">
+        <v>1E-14</v>
+      </c>
+      <c r="C17" s="46">
+        <v>1E-14</v>
+      </c>
+      <c r="D17" s="18"/>
       <c r="E17" s="3">
         <v>8</v>
       </c>
@@ -2244,10 +5877,16 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
+      <c r="A18" s="8">
+        <v>7</v>
+      </c>
+      <c r="B18" s="47">
+        <v>1E-14</v>
+      </c>
+      <c r="C18" s="45">
+        <v>1600</v>
+      </c>
+      <c r="D18" s="18"/>
       <c r="E18" s="3">
         <v>8</v>
       </c>
@@ -2261,11 +5900,11 @@
         <v>-369139773.44036299</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="A19" s="23"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="19"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
       <c r="E19" s="3">
         <v>9</v>
       </c>
@@ -2278,18 +5917,12 @@
       <c r="H19" s="13">
         <v>361904761.90475899</v>
       </c>
-      <c r="J19" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
     </row>
-    <row r="20" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="23"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="19"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
       <c r="E20" s="3">
         <v>9</v>
       </c>
@@ -2302,24 +5935,12 @@
       <c r="H20" s="13">
         <v>361904761.90475899</v>
       </c>
-      <c r="J20" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="K20" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="L20" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="47" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
       <c r="E21" s="3">
         <v>10</v>
       </c>
@@ -2332,28 +5953,12 @@
       <c r="H21" s="13">
         <v>199999999.99999899</v>
       </c>
-      <c r="J21" s="33">
-        <f>B28/B3</f>
-        <v>1</v>
-      </c>
-      <c r="K21" s="36">
-        <f>C28/C3</f>
-        <v>1</v>
-      </c>
-      <c r="L21" s="39">
-        <f>G28/G3</f>
-        <v>0.99999995200790837</v>
-      </c>
-      <c r="M21" s="40">
-        <f>H28/H3</f>
-        <v>0.99999995223305871</v>
-      </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
       <c r="E22" s="3">
         <v>10</v>
       </c>
@@ -2366,28 +5971,12 @@
       <c r="H22" s="13">
         <v>199999999.99999899</v>
       </c>
-      <c r="J22" s="34">
-        <f t="shared" ref="J22:J29" si="0">B29/B4</f>
-        <v>1.0000049119174226</v>
-      </c>
-      <c r="K22" s="37">
-        <f t="shared" ref="K22:K27" si="1">C29/C4</f>
-        <v>0.99999978040080106</v>
-      </c>
-      <c r="L22" s="41">
-        <f t="shared" ref="L22:L42" si="2">G29/G4</f>
-        <v>0.99999995200790837</v>
-      </c>
-      <c r="M22" s="42">
-        <f t="shared" ref="M22:M42" si="3">H29/H4</f>
-        <v>0.99999995223305871</v>
-      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
       <c r="E23" s="3">
         <v>11</v>
       </c>
@@ -2400,28 +5989,12 @@
       <c r="H23" s="13">
         <v>609523809.523808</v>
       </c>
-      <c r="J23" s="34">
-        <f t="shared" si="0"/>
-        <v>1.0000041118421381</v>
-      </c>
-      <c r="K23" s="37">
-        <f t="shared" si="1"/>
-        <v>0.99999916656448962</v>
-      </c>
-      <c r="L23" s="41">
-        <f t="shared" si="2"/>
-        <v>0.99999993585677194</v>
-      </c>
-      <c r="M23" s="42">
-        <f t="shared" si="3"/>
-        <v>0.99999993532560305</v>
-      </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="24"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
       <c r="E24" s="4">
         <v>11</v>
       </c>
@@ -2434,120 +6007,72 @@
       <c r="H24" s="15">
         <v>609523809.523808</v>
       </c>
-      <c r="J24" s="34">
-        <f t="shared" si="0"/>
-        <v>0.99998648964455028</v>
-      </c>
-      <c r="K24" s="37">
-        <f t="shared" si="1"/>
-        <v>0.99999990078841006</v>
-      </c>
-      <c r="L24" s="41">
-        <f t="shared" si="2"/>
-        <v>0.99999993585677194</v>
-      </c>
-      <c r="M24" s="42">
-        <f t="shared" si="3"/>
-        <v>0.99999993532560305</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="J25" s="34">
-        <f t="shared" si="0"/>
-        <v>1.0000026483050912</v>
-      </c>
-      <c r="K25" s="37">
-        <f t="shared" si="1"/>
-        <v>1.0000002229950993</v>
-      </c>
-      <c r="L25" s="41">
-        <f t="shared" si="2"/>
-        <v>0.99999991756165385</v>
-      </c>
-      <c r="M25" s="42">
-        <f t="shared" si="3"/>
-        <v>0.99999991722477533</v>
-      </c>
     </row>
     <row r="26" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="21"/>
-      <c r="J26" s="34">
-        <f>B33/B8</f>
-        <v>0.99999987153990466</v>
-      </c>
-      <c r="K26" s="37">
-        <f t="shared" si="1"/>
-        <v>1.0000009891559458</v>
-      </c>
-      <c r="L26" s="41">
-        <f t="shared" si="2"/>
-        <v>0.99999991756165385</v>
-      </c>
-      <c r="M26" s="42">
-        <f t="shared" si="3"/>
-        <v>0.99999991722477533</v>
-      </c>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="39"/>
+      <c r="J26" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
     </row>
     <row r="27" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="26" t="s">
+      <c r="D27" s="18"/>
+      <c r="E27" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="27" t="s">
+      <c r="F27" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G27" s="28" t="s">
+      <c r="G27" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H27" s="26" t="s">
+      <c r="H27" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="J27" s="35">
-        <f t="shared" si="0"/>
-        <v>0.99999872967480441</v>
-      </c>
-      <c r="K27" s="38">
-        <f t="shared" si="1"/>
+      <c r="J27" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="L27" s="41">
-        <f t="shared" si="2"/>
-        <v>0.99999990331251565</v>
-      </c>
-      <c r="M27" s="42">
-        <f t="shared" si="3"/>
-        <v>0.99999990315040266</v>
+      <c r="K27" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="L27" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="30" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>1</v>
       </c>
-      <c r="B28" s="30">
+      <c r="B28" s="26">
         <v>1.0000000000000001E-17</v>
       </c>
-      <c r="C28" s="31">
+      <c r="C28" s="27">
         <v>1.0000000000000001E-17</v>
       </c>
-      <c r="D28" s="22"/>
+      <c r="D28" s="18"/>
       <c r="E28" s="3">
         <v>1</v>
       </c>
@@ -2560,15 +6085,21 @@
       <c r="H28" s="14">
         <v>-1235161300</v>
       </c>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="41">
-        <f t="shared" si="2"/>
-        <v>0.99999990331251565</v>
-      </c>
-      <c r="M28" s="42">
-        <f t="shared" si="3"/>
-        <v>0.99999990315040266</v>
+      <c r="J28" s="52">
+        <f>B28/B3*100</f>
+        <v>100</v>
+      </c>
+      <c r="K28" s="31">
+        <f>C28/C3*100</f>
+        <v>100</v>
+      </c>
+      <c r="L28" s="52">
+        <f>G28/G3*100</f>
+        <v>99.999995200790835</v>
+      </c>
+      <c r="M28" s="32">
+        <f>H28/H3*100</f>
+        <v>99.999995223305874</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -2581,7 +6112,7 @@
       <c r="C29" s="6">
         <v>-4.1638400000000002E-3</v>
       </c>
-      <c r="D29" s="22"/>
+      <c r="D29" s="18"/>
       <c r="E29" s="3">
         <v>1</v>
       </c>
@@ -2594,15 +6125,21 @@
       <c r="H29" s="14">
         <v>-1235161300</v>
       </c>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="41">
-        <f t="shared" si="2"/>
-        <v>0.99999984327944802</v>
-      </c>
-      <c r="M29" s="42">
-        <f t="shared" si="3"/>
-        <v>0.99999984104759432</v>
+      <c r="J29" s="9">
+        <f>B29/B4*100</f>
+        <v>100.00049119174226</v>
+      </c>
+      <c r="K29" s="33">
+        <f>C29/C4*100</f>
+        <v>99.999978040080109</v>
+      </c>
+      <c r="L29" s="9">
+        <f>G29/G4*100</f>
+        <v>99.999995200790835</v>
+      </c>
+      <c r="M29" s="7">
+        <f>H29/H4*100</f>
+        <v>99.999995223305874</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -2615,7 +6152,7 @@
       <c r="C30" s="6">
         <v>-4.5031799999999999E-3</v>
       </c>
-      <c r="D30" s="22"/>
+      <c r="D30" s="18"/>
       <c r="E30" s="3">
         <v>2</v>
       </c>
@@ -2628,15 +6165,21 @@
       <c r="H30" s="13">
         <v>-867807278</v>
       </c>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="41">
-        <f t="shared" si="2"/>
-        <v>0.99999984327944802</v>
-      </c>
-      <c r="M30" s="42">
-        <f t="shared" si="3"/>
-        <v>0.99999984104759432</v>
+      <c r="J30" s="9">
+        <f>B30/B5*100</f>
+        <v>100.00041118421382</v>
+      </c>
+      <c r="K30" s="33">
+        <f>C30/C5*100</f>
+        <v>99.99991665644896</v>
+      </c>
+      <c r="L30" s="9">
+        <f>G30/G5*100</f>
+        <v>99.999993585677188</v>
+      </c>
+      <c r="M30" s="7">
+        <f>H30/H5*100</f>
+        <v>99.99999353256031</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
@@ -2649,7 +6192,7 @@
       <c r="C31" s="7">
         <v>-4.28701E-3</v>
       </c>
-      <c r="D31" s="22"/>
+      <c r="D31" s="18"/>
       <c r="E31" s="3">
         <v>2</v>
       </c>
@@ -2662,15 +6205,21 @@
       <c r="H31" s="13">
         <v>-867807278</v>
       </c>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="41">
-        <f t="shared" si="2"/>
-        <v>0.99999978595609029</v>
-      </c>
-      <c r="M31" s="42">
-        <f t="shared" si="3"/>
-        <v>0.99999978623017682</v>
+      <c r="J31" s="9">
+        <f>B31/B6*100</f>
+        <v>99.998648964455029</v>
+      </c>
+      <c r="K31" s="33">
+        <f>C31/C6*100</f>
+        <v>99.999990078841009</v>
+      </c>
+      <c r="L31" s="9">
+        <f>G31/G6*100</f>
+        <v>99.999993585677188</v>
+      </c>
+      <c r="M31" s="7">
+        <f>H31/H6*100</f>
+        <v>99.99999353256031</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
@@ -2683,7 +6232,7 @@
       <c r="C32" s="6">
         <v>-4.4785199999999997E-3</v>
       </c>
-      <c r="D32" s="22"/>
+      <c r="D32" s="18"/>
       <c r="E32" s="3">
         <v>3</v>
       </c>
@@ -2696,15 +6245,21 @@
       <c r="H32" s="13">
         <v>-729384018</v>
       </c>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="41">
-        <f t="shared" si="2"/>
-        <v>0.99999978595609029</v>
-      </c>
-      <c r="M32" s="42">
-        <f t="shared" si="3"/>
-        <v>0.99999978623017682</v>
+      <c r="J32" s="9">
+        <f>B32/B7*100</f>
+        <v>100.00026483050912</v>
+      </c>
+      <c r="K32" s="33">
+        <f>C32/C7*100</f>
+        <v>100.00002229950992</v>
+      </c>
+      <c r="L32" s="9">
+        <f>G32/G7*100</f>
+        <v>99.999991756165386</v>
+      </c>
+      <c r="M32" s="7">
+        <f>H32/H7*100</f>
+        <v>99.999991722477532</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
@@ -2717,7 +6272,7 @@
       <c r="C33" s="6">
         <v>-4.1020900000000001E-3</v>
       </c>
-      <c r="D33" s="22"/>
+      <c r="D33" s="18"/>
       <c r="E33" s="3">
         <v>3</v>
       </c>
@@ -2730,15 +6285,21 @@
       <c r="H33" s="13">
         <v>-729384018</v>
       </c>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="41">
-        <f t="shared" si="2"/>
-        <v>0.99999995841457001</v>
-      </c>
-      <c r="M33" s="42">
-        <f t="shared" si="3"/>
-        <v>0.9999999581720499</v>
+      <c r="J33" s="9">
+        <f>B33/B8*100</f>
+        <v>99.99998715399046</v>
+      </c>
+      <c r="K33" s="33">
+        <f>C33/C8*100</f>
+        <v>100.00009891559458</v>
+      </c>
+      <c r="L33" s="9">
+        <f>G33/G8*100</f>
+        <v>99.999991756165386</v>
+      </c>
+      <c r="M33" s="7">
+        <f>H33/H8*100</f>
+        <v>99.999991722477532</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
@@ -2748,10 +6309,10 @@
       <c r="B34" s="4">
         <v>1.1245700000000001E-3</v>
       </c>
-      <c r="C34" s="32">
+      <c r="C34" s="28">
         <v>1.0000000000000001E-17</v>
       </c>
-      <c r="D34" s="22"/>
+      <c r="D34" s="18"/>
       <c r="E34" s="3">
         <v>4</v>
       </c>
@@ -2764,22 +6325,28 @@
       <c r="H34" s="13">
         <v>-681468270</v>
       </c>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="41">
-        <f t="shared" si="2"/>
-        <v>0.99999995841457001</v>
-      </c>
-      <c r="M34" s="42">
-        <f t="shared" si="3"/>
-        <v>0.9999999581720499</v>
+      <c r="J34" s="53">
+        <f>B34/B9*100</f>
+        <v>99.999872967480442</v>
+      </c>
+      <c r="K34" s="34">
+        <f>C34/C9*100</f>
+        <v>100</v>
+      </c>
+      <c r="L34" s="9">
+        <f>G34/G9*100</f>
+        <v>99.999990331251567</v>
+      </c>
+      <c r="M34" s="7">
+        <f>H34/H9*100</f>
+        <v>99.999990315040264</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="23"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
       <c r="E35" s="3">
         <v>4</v>
       </c>
@@ -2793,21 +6360,27 @@
         <v>-681468270</v>
       </c>
       <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="41">
-        <f t="shared" si="2"/>
-        <v>1.0000000008194598</v>
-      </c>
-      <c r="M35" s="42">
-        <f t="shared" si="3"/>
-        <v>1.0000000015160573</v>
+      <c r="K35" s="35"/>
+      <c r="L35" s="9">
+        <f>G35/G10*100</f>
+        <v>99.999990331251567</v>
+      </c>
+      <c r="M35" s="7">
+        <f>H35/H10*100</f>
+        <v>99.999990315040264</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="23"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
+    <row r="36" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="18"/>
       <c r="E36" s="3">
         <v>5</v>
       </c>
@@ -2820,22 +6393,32 @@
       <c r="H36" s="13">
         <v>-145938957</v>
       </c>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="41">
-        <f t="shared" si="2"/>
-        <v>1.0000000008194598</v>
-      </c>
-      <c r="M36" s="42">
-        <f t="shared" si="3"/>
-        <v>1.0000000015160573</v>
+      <c r="J36" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="K36" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="L36" s="9">
+        <f>G36/G11*100</f>
+        <v>99.999984327944802</v>
+      </c>
+      <c r="M36" s="7">
+        <f>H36/H11*100</f>
+        <v>99.999984104759434</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="23"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
+      <c r="A37" s="2">
+        <v>1</v>
+      </c>
+      <c r="B37" s="26">
+        <v>3900.0001164300002</v>
+      </c>
+      <c r="C37" s="27">
+        <v>2899.9998608199999</v>
+      </c>
+      <c r="D37" s="18"/>
       <c r="E37" s="3">
         <v>5</v>
       </c>
@@ -2848,22 +6431,34 @@
       <c r="H37" s="13">
         <v>-145938957</v>
       </c>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="41">
-        <f t="shared" si="2"/>
-        <v>0.99999979221580004</v>
-      </c>
-      <c r="M37" s="42">
-        <f t="shared" si="3"/>
-        <v>0.9999997930263238</v>
+      <c r="J37" s="52">
+        <f>B37/B12*100</f>
+        <v>100.00000298538463</v>
+      </c>
+      <c r="K37" s="31">
+        <f>C37/C12*100</f>
+        <v>99.999995204137932</v>
+      </c>
+      <c r="L37" s="9">
+        <f>G37/G12*100</f>
+        <v>99.999984327944802</v>
+      </c>
+      <c r="M37" s="7">
+        <f>H37/H12*100</f>
+        <v>99.999984104759434</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="23"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
+      <c r="A38" s="3">
+        <v>2</v>
+      </c>
+      <c r="B38" s="44">
+        <v>0</v>
+      </c>
+      <c r="C38" s="48">
+        <v>0</v>
+      </c>
+      <c r="D38" s="18"/>
       <c r="E38" s="3">
         <v>6</v>
       </c>
@@ -2876,22 +6471,34 @@
       <c r="H38" s="13">
         <v>145938949</v>
       </c>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="41">
-        <f t="shared" si="2"/>
-        <v>0.99999979221580004</v>
-      </c>
-      <c r="M38" s="42">
-        <f t="shared" si="3"/>
-        <v>0.9999997930263238</v>
+      <c r="J38" s="9">
+        <f t="shared" ref="J38:J43" si="0">B38/B13*100</f>
+        <v>0</v>
+      </c>
+      <c r="K38" s="33">
+        <f t="shared" ref="K38:K43" si="1">C38/C13*100</f>
+        <v>0</v>
+      </c>
+      <c r="L38" s="9">
+        <f>G38/G13*100</f>
+        <v>99.999978595609036</v>
+      </c>
+      <c r="M38" s="7">
+        <f>H38/H13*100</f>
+        <v>99.999978623017682</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="23"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
+      <c r="A39" s="3">
+        <v>3</v>
+      </c>
+      <c r="B39" s="44">
+        <v>0</v>
+      </c>
+      <c r="C39" s="48">
+        <v>0</v>
+      </c>
+      <c r="D39" s="18"/>
       <c r="E39" s="3">
         <v>6</v>
       </c>
@@ -2904,22 +6511,34 @@
       <c r="H39" s="13">
         <v>145938949</v>
       </c>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="41">
-        <f t="shared" si="2"/>
-        <v>0.99999973871428582</v>
-      </c>
-      <c r="M39" s="42">
-        <f t="shared" si="3"/>
-        <v>0.99999974000000502</v>
+      <c r="J39" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="9">
+        <f>G39/G14*100</f>
+        <v>99.999978595609036</v>
+      </c>
+      <c r="M39" s="7">
+        <f>H39/H14*100</f>
+        <v>99.999978623017682</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="23"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
+      <c r="A40" s="3">
+        <v>4</v>
+      </c>
+      <c r="B40" s="44">
+        <v>0</v>
+      </c>
+      <c r="C40" s="48">
+        <v>0</v>
+      </c>
+      <c r="D40" s="18"/>
       <c r="E40" s="3">
         <v>7</v>
       </c>
@@ -2932,22 +6551,34 @@
       <c r="H40" s="13">
         <v>369139758</v>
       </c>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="41">
-        <f t="shared" si="2"/>
-        <v>0.99999973871428582</v>
-      </c>
-      <c r="M40" s="42">
-        <f t="shared" si="3"/>
-        <v>0.99999974000000502</v>
+      <c r="J40" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="9">
+        <f>G40/G15*100</f>
+        <v>99.999995841457007</v>
+      </c>
+      <c r="M40" s="7">
+        <f>H40/H15*100</f>
+        <v>99.99999581720499</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="23"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
+      <c r="A41" s="3">
+        <v>5</v>
+      </c>
+      <c r="B41" s="44">
+        <v>0</v>
+      </c>
+      <c r="C41" s="48">
+        <v>0</v>
+      </c>
+      <c r="D41" s="18"/>
       <c r="E41" s="3">
         <v>7</v>
       </c>
@@ -2960,22 +6591,34 @@
       <c r="H41" s="13">
         <v>369139758</v>
       </c>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="41">
-        <f t="shared" si="2"/>
-        <v>0.99999990331250321</v>
-      </c>
-      <c r="M41" s="42">
-        <f t="shared" si="3"/>
-        <v>0.99999990398437755</v>
+      <c r="J41" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L41" s="9">
+        <f>G41/G16*100</f>
+        <v>99.999995841457007</v>
+      </c>
+      <c r="M41" s="7">
+        <f>H41/H16*100</f>
+        <v>99.99999581720499</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="23"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
+      <c r="A42" s="3">
+        <v>6</v>
+      </c>
+      <c r="B42" s="44">
+        <v>0</v>
+      </c>
+      <c r="C42" s="48">
+        <v>0</v>
+      </c>
+      <c r="D42" s="18"/>
       <c r="E42" s="3">
         <v>8</v>
       </c>
@@ -2988,22 +6631,34 @@
       <c r="H42" s="13">
         <v>-369139774</v>
       </c>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="43">
-        <f t="shared" si="2"/>
-        <v>0.99999990331250321</v>
-      </c>
-      <c r="M42" s="44">
-        <f t="shared" si="3"/>
-        <v>0.99999990398437755</v>
+      <c r="J42" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L42" s="9">
+        <f>G42/G17*100</f>
+        <v>100.00000008194598</v>
+      </c>
+      <c r="M42" s="7">
+        <f>H42/H17*100</f>
+        <v>100.00000015160573</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="23"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
+      <c r="A43" s="4">
+        <v>7</v>
+      </c>
+      <c r="B43" s="28">
+        <v>0</v>
+      </c>
+      <c r="C43" s="28">
+        <v>1599.9998453000001</v>
+      </c>
+      <c r="D43" s="18"/>
       <c r="E43" s="3">
         <v>8</v>
       </c>
@@ -3016,12 +6671,28 @@
       <c r="H43" s="13">
         <v>-369139774</v>
       </c>
+      <c r="J43" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="34">
+        <f t="shared" si="1"/>
+        <v>99.999990331250004</v>
+      </c>
+      <c r="L43" s="9">
+        <f>G43/G18*100</f>
+        <v>100.00000008194598</v>
+      </c>
+      <c r="M43" s="7">
+        <f>H43/H18*100</f>
+        <v>100.00000015160573</v>
+      </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="23"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
+      <c r="A44" s="19"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
       <c r="E44" s="3">
         <v>9</v>
       </c>
@@ -3034,12 +6705,22 @@
       <c r="H44" s="13">
         <v>361904687</v>
       </c>
+      <c r="J44" s="1"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="9">
+        <f>G44/G19*100</f>
+        <v>99.999979221580006</v>
+      </c>
+      <c r="M44" s="7">
+        <f>H44/H19*100</f>
+        <v>99.999979302632383</v>
+      </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="23"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
+      <c r="A45" s="19"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
       <c r="E45" s="3">
         <v>9</v>
       </c>
@@ -3052,12 +6733,22 @@
       <c r="H45" s="13">
         <v>361904687</v>
       </c>
+      <c r="J45" s="1"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="9">
+        <f>G45/G20*100</f>
+        <v>99.999979221580006</v>
+      </c>
+      <c r="M45" s="7">
+        <f>H45/H20*100</f>
+        <v>99.999979302632383</v>
+      </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" s="23"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
+      <c r="A46" s="19"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
       <c r="E46" s="3">
         <v>10</v>
       </c>
@@ -3070,12 +6761,22 @@
       <c r="H46" s="13">
         <v>199999948</v>
       </c>
+      <c r="J46" s="1"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="9">
+        <f>G46/G21*100</f>
+        <v>99.99997387142858</v>
+      </c>
+      <c r="M46" s="7">
+        <f>H46/H21*100</f>
+        <v>99.999974000000506</v>
+      </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="23"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
+      <c r="A47" s="19"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
       <c r="E47" s="3">
         <v>10</v>
       </c>
@@ -3088,12 +6789,22 @@
       <c r="H47" s="13">
         <v>199999948</v>
       </c>
+      <c r="J47" s="1"/>
+      <c r="K47" s="35"/>
+      <c r="L47" s="9">
+        <f>G47/G22*100</f>
+        <v>99.99997387142858</v>
+      </c>
+      <c r="M47" s="7">
+        <f>H47/H22*100</f>
+        <v>99.999974000000506</v>
+      </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="23"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
+      <c r="A48" s="19"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
       <c r="E48" s="3">
         <v>11</v>
       </c>
@@ -3106,12 +6817,22 @@
       <c r="H48" s="13">
         <v>609523751</v>
       </c>
+      <c r="J48" s="1"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="9">
+        <f>G48/G23*100</f>
+        <v>99.999990331250316</v>
+      </c>
+      <c r="M48" s="7">
+        <f>H48/H23*100</f>
+        <v>99.99999039843776</v>
+      </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="24"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" s="20"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
       <c r="E49" s="4">
         <v>11</v>
       </c>
@@ -3121,15 +6842,25 @@
       <c r="G49" s="12">
         <v>3199.9996906000001</v>
       </c>
-      <c r="H49" s="29">
+      <c r="H49" s="25">
         <v>609523751</v>
+      </c>
+      <c r="J49" s="1"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="53">
+        <f>G49/G24*100</f>
+        <v>99.999990331250316</v>
+      </c>
+      <c r="M49" s="36">
+        <f>H49/H24*100</f>
+        <v>99.99999039843776</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A26:H26"/>
-    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J26:M26"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
